--- a/WombaTelemedicine/src/test/resources/excel/Registrationdetails.xlsx
+++ b/WombaTelemedicine/src/test/resources/excel/Registrationdetails.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Automation\taylor\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084D2CDF-C8C1-45DF-B367-DA0D17DF5D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E3A53F06-E1E4-4068-830B-AFF8AFDB33A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,24 +21,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Confirm_email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">First Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail ID </t>
   </si>
   <si>
     <t xml:space="preserve">Password </t>
   </si>
   <si>
-    <t xml:space="preserve">Confirm_password </t>
-  </si>
-  <si>
-    <t>davidjohn0496@gmail.com</t>
-  </si>
-  <si>
-    <t>45@#Prashu</t>
+    <t xml:space="preserve">Confirm Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number </t>
   </si>
 </sst>
 </file>
@@ -58,18 +54,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,10 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,48 +356,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="1" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WombaTelemedicine/src/test/resources/excel/Registrationdetails.xlsx
+++ b/WombaTelemedicine/src/test/resources/excel/Registrationdetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E3A53F06-E1E4-4068-830B-AFF8AFDB33A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D71CA72E-F0C5-49F7-9A76-2F2B483B8D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">First Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mail ID </t>
   </si>
   <si>
@@ -39,6 +33,12 @@
   </si>
   <si>
     <t xml:space="preserve">Phone Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstName </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LastName </t>
   </si>
 </sst>
 </file>
@@ -358,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -374,22 +374,22 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.3"/>
